--- a/Stakeholder.xlsx
+++ b/Stakeholder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\HAW\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDEDA90-C1CB-462C-947F-69B603EA16B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED2931-CB93-4D33-80AE-5E2343540709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{7EDC244D-3D46-447D-94F7-BD99E0BA06BD}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Rolle</t>
   </si>
   <si>
-    <t>Kontakt</t>
-  </si>
-  <si>
     <t>Erwartungshaltung</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>Konstrukteur (KO)</t>
   </si>
   <si>
-    <t>Lieferat(L)</t>
-  </si>
-  <si>
-    <t>martin.becke@haw-hamburg.de</t>
-  </si>
-  <si>
     <t>Dokumentierter Aufbau der Werkzeug-Plattform. Erwartet eindeutigen Aufbau.</t>
   </si>
   <si>
@@ -68,17 +59,17 @@
     <t>Fordert definierte Schnittstellen und eine Definition sämtlicher Zustände der Werkzeug-Plattform.</t>
   </si>
   <si>
-    <t xml:space="preserve">Es muss eine genaue Stückliste der zu benötigten Einzelteile stehen und diese Einzelteile sollten möglicht von einem Lieferanten bezogen werden. </t>
-  </si>
-  <si>
-    <t>Dies sind die herausgearbeiteten Stakeholder. Es ist nötig diese aufzustellen um für jeden beteiligten des Projektes die genauen Anforderungen herauszuarbeiten und alles abzudecken.</t>
+    <t>Es muss eine genaue Stückliste der zu benötigten Einzelteile vorhanden sein und diese Einzelteile sollten möglicht von einem Lieferanten bezogen werden. Außerdem sollen die Kauflinks der zu bestellenden Komponenten hinzugefügt werden.</t>
+  </si>
+  <si>
+    <t>Lieferant(L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,14 +81,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,15 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -166,8 +147,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,83 +460,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158B1FCE-7EBC-462C-8B8D-3AD97BF091B3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="117.1328125" customWidth="1"/>
+    <col min="2" max="2" width="117.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{D957E3E9-DA27-4299-AF66-73FCD45BEA4E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>